--- a/Responsibility Assignment Matrix.xlsx
+++ b/Responsibility Assignment Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrs/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrs/Education/Edith Cowan University/Project Methods &amp; Professionalism/Assignment 2/Team-Awesome/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1813,10 +1813,10 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -1834,10 +1834,10 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
